--- a/DMI Sheet/flowcalc.xlsx
+++ b/DMI Sheet/flowcalc.xlsx
@@ -6027,9 +6027,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W602"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C606" sqref="C606"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q261" sqref="Q261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23079,7 +23079,7 @@
         <v>95.6</v>
       </c>
       <c r="P246">
-        <v>68.473333333336697</v>
+        <v>73</v>
       </c>
       <c r="Q246">
         <v>0</v>

--- a/DMI Sheet/flowcalc.xlsx
+++ b/DMI Sheet/flowcalc.xlsx
@@ -71,13 +71,7 @@
     <t>Ady Canal Remain.Diversion Request (cfs)</t>
   </si>
   <si>
-    <t>Ag Sheet.Pacificorp Accretions (cfs)</t>
-  </si>
-  <si>
     <t>Williamson River Inflow.CNRFC Short Term (cfs)</t>
-  </si>
-  <si>
-    <t>Ag Sheet.Pacificorp Borrow (acre-ft)</t>
   </si>
   <si>
     <t>Refuge.Discharge To Drain (cfs)</t>
@@ -93,6 +87,12 @@
   </si>
   <si>
     <t>UKL.Outflow (cfs)</t>
+  </si>
+  <si>
+    <t>Agricultural Deliveries.Pacificorp Borrow (acre-ft)</t>
+  </si>
+  <si>
+    <t>Agricultural Deliveries.Pacificorp Accretions (cfs)</t>
   </si>
 </sst>
 </file>
@@ -6027,9 +6027,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q261" sqref="Q261"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I393" sqref="I393"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6038,10 +6038,10 @@
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="26.5703125" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" customWidth="1"/>
     <col min="7" max="7" width="43.7109375" customWidth="1"/>
-    <col min="8" max="8" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="44.5703125" customWidth="1"/>
     <col min="9" max="9" width="37.5703125" customWidth="1"/>
     <col min="10" max="10" width="16.5703125" customWidth="1"/>
     <col min="11" max="11" width="32.7109375" customWidth="1"/>
@@ -6061,25 +6061,25 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -6247,7 +6247,7 @@
         <v>970</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L9">
         <v>595</v>
@@ -32433,7 +32433,7 @@
         <v>0</v>
       </c>
       <c r="J378">
-        <v>1840</v>
+        <v>1710</v>
       </c>
       <c r="K378">
         <v>929</v>
@@ -32504,7 +32504,7 @@
         <v>0</v>
       </c>
       <c r="J379">
-        <v>1830</v>
+        <v>1734</v>
       </c>
       <c r="K379">
         <v>911</v>
@@ -32575,7 +32575,7 @@
         <v>0</v>
       </c>
       <c r="J380">
-        <v>1740</v>
+        <v>1584</v>
       </c>
       <c r="K380">
         <v>894</v>
@@ -32646,7 +32646,7 @@
         <v>0</v>
       </c>
       <c r="J381">
-        <v>1800</v>
+        <v>1434</v>
       </c>
       <c r="K381">
         <v>740</v>
@@ -32806,9 +32806,7 @@
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
       <c r="G389" s="1"/>
-      <c r="H389" s="3">
-        <v>800</v>
-      </c>
+      <c r="H389" s="3"/>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
@@ -32820,9 +32818,7 @@
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
       <c r="G390" s="1"/>
-      <c r="H390" s="3">
-        <v>800</v>
-      </c>
+      <c r="H390" s="3"/>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="1">

--- a/DMI Sheet/flowcalc.xlsx
+++ b/DMI Sheet/flowcalc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>IGD.Outflow (cfs)</t>
   </si>
@@ -3148,7 +3148,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3167,6 +3167,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2579">
     <cellStyle name="20% - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -6028,8 +6031,8 @@
   <dimension ref="A1:W602"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I393" sqref="I393"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6143,6 +6146,9 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
+      <c r="J3" s="6">
+        <v>957</v>
+      </c>
       <c r="L3">
         <v>509</v>
       </c>
@@ -6156,6 +6162,9 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
+      <c r="J4" s="6">
+        <v>991</v>
+      </c>
       <c r="L4">
         <v>509</v>
       </c>
@@ -6169,6 +6178,9 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
+      <c r="J5" s="6">
+        <v>959</v>
+      </c>
       <c r="L5">
         <v>507</v>
       </c>
@@ -6182,6 +6194,9 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
+      <c r="J6" s="6">
+        <v>965</v>
+      </c>
       <c r="L6">
         <v>507</v>
       </c>
@@ -6195,6 +6210,9 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
+      <c r="J7" s="6">
+        <v>964</v>
+      </c>
       <c r="L7">
         <v>508</v>
       </c>
@@ -6208,6 +6226,9 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
+      <c r="J8" s="6">
+        <v>958</v>
+      </c>
       <c r="L8">
         <v>567</v>
       </c>
@@ -8009,7 +8030,9 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="5"/>
+      <c r="G34" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" s="3">
         <v>550</v>
       </c>
@@ -8078,7 +8101,9 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="5"/>
+      <c r="G35" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H35" s="3">
         <v>500</v>
       </c>
@@ -8644,7 +8669,9 @@
       <c r="F43" s="7">
         <v>0</v>
       </c>
-      <c r="G43" s="5"/>
+      <c r="G43" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H43" s="3">
         <v>500</v>
       </c>
@@ -20996,7 +21023,9 @@
       <c r="F217" s="7">
         <v>-60</v>
       </c>
-      <c r="G217" s="5"/>
+      <c r="G217" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H217" s="3">
         <v>260</v>
       </c>
@@ -21065,7 +21094,9 @@
       <c r="F218" s="7">
         <v>-60</v>
       </c>
-      <c r="G218" s="5"/>
+      <c r="G218" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="H218" s="3">
         <v>260</v>
       </c>
